--- a/data/sample/ingredents_dummy_data.xlsx
+++ b/data/sample/ingredents_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\sse2019-group5\data\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C74636-FEE1-4033-B3B1-FF9B0EE43F1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576AF6ED-FF53-4E51-BB4B-5DA426516EA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35010" yWindow="5205" windowWidth="19020" windowHeight="9165" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredients" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId13"/>
-    <pivotCache cacheId="6" r:id="rId14"/>
+    <pivotCache cacheId="1" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="428">
   <si>
     <t>チキン南蛮弁当</t>
   </si>
@@ -1352,6 +1352,9 @@
   </si>
   <si>
     <t>比率</t>
+  </si>
+  <si>
+    <t>menu_id</t>
   </si>
 </sst>
 </file>
@@ -3865,7 +3868,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EDB96B9-61CC-4038-9C51-8C867BB65505}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EDB96B9-61CC-4038-9C51-8C867BB65505}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B1:K4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -3959,6 +3962,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0734AB3C-24E2-40A5-803E-0547A851B2C1}" name="Table3" displayName="Table3" ref="A2:Q92" totalsRowShown="0">
+  <autoFilter ref="A2:Q92" xr:uid="{51603A15-989F-4403-96D8-7FE8A58FE964}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{32E82DFF-5A19-472A-A961-26417D4CB05B}" name="id"/>
+    <tableColumn id="2" xr3:uid="{BCCA6E1B-C0FB-4FE9-8B2A-CBF3BDBA1875}" name="course_id"/>
+    <tableColumn id="3" xr3:uid="{F1B3CB89-CE3A-4AE3-8DA8-0766047ADA8A}" name="course_name"/>
+    <tableColumn id="4" xr3:uid="{F06615C9-7461-4B0F-845E-00BC1D052115}" name="time_segment"/>
+    <tableColumn id="5" xr3:uid="{CDA67C07-2D19-46E0-820E-B37D2BE591E6}" name="course_seg_code">
+      <calculatedColumnFormula>B3&amp;"_"&amp;D3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{4E5F0380-88F6-4BED-8702-4AE28F31E4B0}" name="menu_id"/>
+    <tableColumn id="7" xr3:uid="{2069231D-260C-48AC-B361-AB440A3ABBC7}" name="display_name">
+      <calculatedColumnFormula>VLOOKUP(F3,course_list,29,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{5FABAD06-9D0C-467A-ACC4-08AF54BFE91E}" name="price">
+      <calculatedColumnFormula>VLOOKUP(F3,course_list,28,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{2B0E5538-A768-4985-9784-C6D5F4BC0F52}" name="energy">
+      <calculatedColumnFormula>VLOOKUP(F3,course_list,5,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{07DD3C11-2E37-40B5-9E3C-FA9A3C3C0952}" name="protein">
+      <calculatedColumnFormula>VLOOKUP(F3,course_list,7,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{3CC397BB-0DF9-4DBF-9E7F-876A5F81D8FC}" name="lipid">
+      <calculatedColumnFormula>VLOOKUP(F3,course_list,8,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{CF93D53D-ED17-4660-8FFF-394DD488F98C}" name="sugar">
+      <calculatedColumnFormula>VLOOKUP(F3,course_list,9,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{DA65F2FD-EE2E-42AC-9D39-0473B848548C}" name="sodium">
+      <calculatedColumnFormula>VLOOKUP(F3,course_list,11,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{50CE6A17-A603-4B01-BFF4-1487459F7272}" name="postassium">
+      <calculatedColumnFormula>VLOOKUP(F3,course_list,12,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{891B1CB1-E85F-4FBF-8C21-CFCBFDCCC2FB}" name="rin">
+      <calculatedColumnFormula>VLOOKUP(F3,course_list,16,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{5478726B-E1CF-4ECE-AAC9-E56F791172F8}" name="vitamin_a">
+      <calculatedColumnFormula>VLOOKUP(F3,course_list,17,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{654D76B5-6563-4669-907F-5981BBD94D3B}" name="vitamin_b1">
+      <calculatedColumnFormula>VLOOKUP(F3,course_list,18,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="org_table" displayName="org_table" ref="A4:M206" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A4:M206" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
@@ -3982,7 +4035,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="dummy_data" displayName="dummy_data" ref="A1:S203" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:S203" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="19">
@@ -4010,7 +4063,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Categories" displayName="Categories" ref="A2:B10" totalsRowShown="0">
   <autoFilter ref="A2:B10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
@@ -4021,7 +4074,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="SizeCodes" displayName="SizeCodes" ref="D2:E5" totalsRowShown="0">
   <autoFilter ref="D2:E5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
@@ -4744,7 +4797,7 @@
       </c>
       <c r="AC4">
         <f ca="1">INT(RANDBETWEEN(5,12)*10)*10</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AD4" t="str">
         <f>C4&amp;" "&amp;D4&amp;" "&amp;F4&amp;"kcal"</f>
@@ -48130,29 +48183,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F78DAA2-F4A2-44A3-BAC7-CDB55187F7C1}">
   <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="M116" sqref="M116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="11" max="12" width="7.75" customWidth="1"/>
+    <col min="13" max="13" width="8.75" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
     <col min="15" max="15" width="7.25" customWidth="1"/>
-    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.75" customWidth="1"/>
+    <col min="17" max="17" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
@@ -48207,7 +48260,7 @@
         <v>421</v>
       </c>
       <c r="F2" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="G2" t="s">
         <v>331</v>
@@ -48659,7 +48712,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
@@ -54099,6 +54152,9 @@
     <sortCondition ref="B3:B92"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -56553,7 +56609,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56879,10 +56935,10 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57742,7 +57798,7 @@
       </c>
       <c r="J23" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -58702,39 +58758,39 @@
         <v>190707</v>
       </c>
       <c r="F2" s="20">
-        <f>VLOOKUP(C2,course_sumups,4,FALSE)</f>
+        <f t="shared" ref="F2:F15" si="1">VLOOKUP(C2,course_sumups,4,FALSE)</f>
         <v>1727</v>
       </c>
       <c r="G2" s="20">
-        <f>VLOOKUP(C2,course_sumups,5,FALSE)</f>
+        <f t="shared" ref="G2:G15" si="2">VLOOKUP(C2,course_sumups,5,FALSE)</f>
         <v>56.5</v>
       </c>
       <c r="H2" s="20">
-        <f>VLOOKUP(C2,course_sumups,6,FALSE)</f>
+        <f t="shared" ref="H2:H15" si="3">VLOOKUP(C2,course_sumups,6,FALSE)</f>
         <v>84.1</v>
       </c>
       <c r="I2" s="20">
-        <f>VLOOKUP(C2,course_sumups,7,FALSE)</f>
+        <f t="shared" ref="I2:I15" si="4">VLOOKUP(C2,course_sumups,7,FALSE)</f>
         <v>185</v>
       </c>
       <c r="J2" s="20">
-        <f>VLOOKUP(C2,course_sumups,8,FALSE)</f>
+        <f t="shared" ref="J2:J15" si="5">VLOOKUP(C2,course_sumups,8,FALSE)</f>
         <v>9.5</v>
       </c>
       <c r="K2" s="20">
-        <f>VLOOKUP(C2,course_sumups,9,FALSE)</f>
+        <f t="shared" ref="K2:K15" si="6">VLOOKUP(C2,course_sumups,9,FALSE)</f>
         <v>1131</v>
       </c>
       <c r="L2" s="20">
-        <f>VLOOKUP(C2,course_sumups,10,FALSE)</f>
+        <f t="shared" ref="L2:L15" si="7">VLOOKUP(C2,course_sumups,10,FALSE)</f>
         <v>551</v>
       </c>
       <c r="M2" s="20">
-        <f>VLOOKUP(C2,course_sumups,11,FALSE)</f>
+        <f t="shared" ref="M2:M15" si="8">VLOOKUP(C2,course_sumups,11,FALSE)</f>
         <v>3</v>
       </c>
       <c r="N2" s="20">
-        <f>VLOOKUP(C2,course_sumups,12,FALSE)</f>
+        <f t="shared" ref="N2:N15" si="9">VLOOKUP(C2,course_sumups,12,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -58756,39 +58812,39 @@
         <v>190707</v>
       </c>
       <c r="F3" s="20">
-        <f>VLOOKUP(C3,course_sumups,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1678</v>
       </c>
       <c r="G3" s="20">
-        <f>VLOOKUP(C3,course_sumups,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>57.300000000000004</v>
       </c>
       <c r="H3" s="20">
-        <f>VLOOKUP(C3,course_sumups,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="I3" s="20">
-        <f>VLOOKUP(C3,course_sumups,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>182.6</v>
       </c>
       <c r="J3" s="20">
-        <f>VLOOKUP(C3,course_sumups,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="K3" s="20">
-        <f>VLOOKUP(C3,course_sumups,9,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1204</v>
       </c>
       <c r="L3" s="20">
-        <f>VLOOKUP(C3,course_sumups,10,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>656</v>
       </c>
       <c r="M3" s="20">
-        <f>VLOOKUP(C3,course_sumups,11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="N3" s="20">
-        <f>VLOOKUP(C3,course_sumups,12,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -58810,39 +58866,39 @@
         <v>190707</v>
       </c>
       <c r="F4" s="20">
-        <f>VLOOKUP(C4,course_sumups,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2874</v>
       </c>
       <c r="G4" s="20">
-        <f>VLOOKUP(C4,course_sumups,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>83.7</v>
       </c>
       <c r="H4" s="20">
-        <f>VLOOKUP(C4,course_sumups,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>75.600000000000009</v>
       </c>
       <c r="I4" s="20">
-        <f>VLOOKUP(C4,course_sumups,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>461.5</v>
       </c>
       <c r="J4" s="20">
-        <f>VLOOKUP(C4,course_sumups,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="K4" s="20">
-        <f>VLOOKUP(C4,course_sumups,9,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1565</v>
       </c>
       <c r="L4" s="20">
-        <f>VLOOKUP(C4,course_sumups,10,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>902</v>
       </c>
       <c r="M4" s="20">
-        <f>VLOOKUP(C4,course_sumups,11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="N4" s="20">
-        <f>VLOOKUP(C4,course_sumups,12,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -58864,39 +58920,39 @@
         <v>190707</v>
       </c>
       <c r="F5" s="20">
-        <f>VLOOKUP(C5,course_sumups,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>980</v>
       </c>
       <c r="G5" s="20">
-        <f>VLOOKUP(C5,course_sumups,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>68.5</v>
       </c>
       <c r="H5" s="20">
-        <f>VLOOKUP(C5,course_sumups,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>43.8</v>
       </c>
       <c r="I5" s="20">
-        <f>VLOOKUP(C5,course_sumups,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>77.800000000000011</v>
       </c>
       <c r="J5" s="20">
-        <f>VLOOKUP(C5,course_sumups,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="K5" s="20">
-        <f>VLOOKUP(C5,course_sumups,9,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1347</v>
       </c>
       <c r="L5" s="20">
-        <f>VLOOKUP(C5,course_sumups,10,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>525</v>
       </c>
       <c r="M5" s="20">
-        <f>VLOOKUP(C5,course_sumups,11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="N5" s="20">
-        <f>VLOOKUP(C5,course_sumups,12,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -58918,39 +58974,39 @@
         <v>190707</v>
       </c>
       <c r="F6" s="20">
-        <f>VLOOKUP(C6,course_sumups,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1818</v>
       </c>
       <c r="G6" s="20">
-        <f>VLOOKUP(C6,course_sumups,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>62.199999999999996</v>
       </c>
       <c r="H6" s="20">
-        <f>VLOOKUP(C6,course_sumups,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>49.4</v>
       </c>
       <c r="I6" s="20">
-        <f>VLOOKUP(C6,course_sumups,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>280.7</v>
       </c>
       <c r="J6" s="20">
-        <f>VLOOKUP(C6,course_sumups,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>8.6000000000000014</v>
       </c>
       <c r="K6" s="20">
-        <f>VLOOKUP(C6,course_sumups,9,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1363</v>
       </c>
       <c r="L6" s="20">
-        <f>VLOOKUP(C6,course_sumups,10,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>561</v>
       </c>
       <c r="M6" s="20">
-        <f>VLOOKUP(C6,course_sumups,11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="N6" s="20">
-        <f>VLOOKUP(C6,course_sumups,12,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -58972,39 +59028,39 @@
         <v>190707</v>
       </c>
       <c r="F7" s="20">
-        <f>VLOOKUP(C7,course_sumups,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2369</v>
       </c>
       <c r="G7" s="20">
-        <f>VLOOKUP(C7,course_sumups,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>88.4</v>
       </c>
       <c r="H7" s="20">
-        <f>VLOOKUP(C7,course_sumups,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>107.30000000000001</v>
       </c>
       <c r="I7" s="20">
-        <f>VLOOKUP(C7,course_sumups,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>261.39999999999998</v>
       </c>
       <c r="J7" s="20">
-        <f>VLOOKUP(C7,course_sumups,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>10.899999999999999</v>
       </c>
       <c r="K7" s="20">
-        <f>VLOOKUP(C7,course_sumups,9,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1761</v>
       </c>
       <c r="L7" s="20">
-        <f>VLOOKUP(C7,course_sumups,10,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>1028</v>
       </c>
       <c r="M7" s="20">
-        <f>VLOOKUP(C7,course_sumups,11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="N7" s="20">
-        <f>VLOOKUP(C7,course_sumups,12,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -59026,39 +59082,39 @@
         <v>190707</v>
       </c>
       <c r="F8" s="20">
-        <f>VLOOKUP(C8,course_sumups,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2618</v>
       </c>
       <c r="G8" s="20">
-        <f>VLOOKUP(C8,course_sumups,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>84.199999999999989</v>
       </c>
       <c r="H8" s="20">
-        <f>VLOOKUP(C8,course_sumups,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>115.30000000000001</v>
       </c>
       <c r="I8" s="20">
-        <f>VLOOKUP(C8,course_sumups,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>309.3</v>
       </c>
       <c r="J8" s="20">
-        <f>VLOOKUP(C8,course_sumups,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>10.8</v>
       </c>
       <c r="K8" s="20">
-        <f>VLOOKUP(C8,course_sumups,9,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1547</v>
       </c>
       <c r="L8" s="20">
-        <f>VLOOKUP(C8,course_sumups,10,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>1009</v>
       </c>
       <c r="M8" s="20">
-        <f>VLOOKUP(C8,course_sumups,11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="N8" s="20">
-        <f>VLOOKUP(C8,course_sumups,12,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -59080,39 +59136,39 @@
         <v>190714</v>
       </c>
       <c r="F9" s="20">
-        <f>VLOOKUP(C9,course_sumups,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1680</v>
       </c>
       <c r="G9" s="20">
-        <f>VLOOKUP(C9,course_sumups,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>57.900000000000006</v>
       </c>
       <c r="H9" s="20">
-        <f>VLOOKUP(C9,course_sumups,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>46.1</v>
       </c>
       <c r="I9" s="20">
-        <f>VLOOKUP(C9,course_sumups,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>257.8</v>
       </c>
       <c r="J9" s="20">
-        <f>VLOOKUP(C9,course_sumups,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>5.4</v>
       </c>
       <c r="K9" s="20">
-        <f>VLOOKUP(C9,course_sumups,9,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1258</v>
       </c>
       <c r="L9" s="20">
-        <f>VLOOKUP(C9,course_sumups,10,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>523</v>
       </c>
       <c r="M9" s="20">
-        <f>VLOOKUP(C9,course_sumups,11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="N9" s="20">
-        <f>VLOOKUP(C9,course_sumups,12,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -59134,39 +59190,39 @@
         <v>190714</v>
       </c>
       <c r="F10" s="20">
-        <f>VLOOKUP(C10,course_sumups,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1721</v>
       </c>
       <c r="G10" s="20">
-        <f>VLOOKUP(C10,course_sumups,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>60.2</v>
       </c>
       <c r="H10" s="20">
-        <f>VLOOKUP(C10,course_sumups,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>51.1</v>
       </c>
       <c r="I10" s="20">
-        <f>VLOOKUP(C10,course_sumups,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>254.2</v>
       </c>
       <c r="J10" s="20">
-        <f>VLOOKUP(C10,course_sumups,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
       <c r="K10" s="20">
-        <f>VLOOKUP(C10,course_sumups,9,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1288</v>
       </c>
       <c r="L10" s="20">
-        <f>VLOOKUP(C10,course_sumups,10,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>595</v>
       </c>
       <c r="M10" s="20">
-        <f>VLOOKUP(C10,course_sumups,11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="N10" s="20">
-        <f>VLOOKUP(C10,course_sumups,12,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -59188,39 +59244,39 @@
         <v>190714</v>
       </c>
       <c r="F11" s="20">
-        <f>VLOOKUP(C11,course_sumups,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1721</v>
       </c>
       <c r="G11" s="20">
-        <f>VLOOKUP(C11,course_sumups,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>60.2</v>
       </c>
       <c r="H11" s="20">
-        <f>VLOOKUP(C11,course_sumups,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>51.1</v>
       </c>
       <c r="I11" s="20">
-        <f>VLOOKUP(C11,course_sumups,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>254.2</v>
       </c>
       <c r="J11" s="20">
-        <f>VLOOKUP(C11,course_sumups,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
       <c r="K11" s="20">
-        <f>VLOOKUP(C11,course_sumups,9,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1288</v>
       </c>
       <c r="L11" s="20">
-        <f>VLOOKUP(C11,course_sumups,10,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>595</v>
       </c>
       <c r="M11" s="20">
-        <f>VLOOKUP(C11,course_sumups,11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="N11" s="20">
-        <f>VLOOKUP(C11,course_sumups,12,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -59242,39 +59298,39 @@
         <v>190714</v>
       </c>
       <c r="F12" s="20">
-        <f>VLOOKUP(C12,course_sumups,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2874</v>
       </c>
       <c r="G12" s="20">
-        <f>VLOOKUP(C12,course_sumups,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>83.7</v>
       </c>
       <c r="H12" s="20">
-        <f>VLOOKUP(C12,course_sumups,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>75.600000000000009</v>
       </c>
       <c r="I12" s="20">
-        <f>VLOOKUP(C12,course_sumups,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>461.5</v>
       </c>
       <c r="J12" s="20">
-        <f>VLOOKUP(C12,course_sumups,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="K12" s="20">
-        <f>VLOOKUP(C12,course_sumups,9,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1565</v>
       </c>
       <c r="L12" s="20">
-        <f>VLOOKUP(C12,course_sumups,10,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>902</v>
       </c>
       <c r="M12" s="20">
-        <f>VLOOKUP(C12,course_sumups,11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="N12" s="20">
-        <f>VLOOKUP(C12,course_sumups,12,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -59296,39 +59352,39 @@
         <v>190714</v>
       </c>
       <c r="F13" s="20">
-        <f>VLOOKUP(C13,course_sumups,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1727</v>
       </c>
       <c r="G13" s="20">
-        <f>VLOOKUP(C13,course_sumups,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>56.5</v>
       </c>
       <c r="H13" s="20">
-        <f>VLOOKUP(C13,course_sumups,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>84.1</v>
       </c>
       <c r="I13" s="20">
-        <f>VLOOKUP(C13,course_sumups,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>185</v>
       </c>
       <c r="J13" s="20">
-        <f>VLOOKUP(C13,course_sumups,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
       <c r="K13" s="20">
-        <f>VLOOKUP(C13,course_sumups,9,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1131</v>
       </c>
       <c r="L13" s="20">
-        <f>VLOOKUP(C13,course_sumups,10,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>551</v>
       </c>
       <c r="M13" s="20">
-        <f>VLOOKUP(C13,course_sumups,11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="N13" s="20">
-        <f>VLOOKUP(C13,course_sumups,12,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -59350,39 +59406,39 @@
         <v>190714</v>
       </c>
       <c r="F14" s="20">
-        <f>VLOOKUP(C14,course_sumups,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2618</v>
       </c>
       <c r="G14" s="20">
-        <f>VLOOKUP(C14,course_sumups,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>84.199999999999989</v>
       </c>
       <c r="H14" s="20">
-        <f>VLOOKUP(C14,course_sumups,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>115.30000000000001</v>
       </c>
       <c r="I14" s="20">
-        <f>VLOOKUP(C14,course_sumups,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>309.3</v>
       </c>
       <c r="J14" s="20">
-        <f>VLOOKUP(C14,course_sumups,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>10.8</v>
       </c>
       <c r="K14" s="20">
-        <f>VLOOKUP(C14,course_sumups,9,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1547</v>
       </c>
       <c r="L14" s="20">
-        <f>VLOOKUP(C14,course_sumups,10,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>1009</v>
       </c>
       <c r="M14" s="20">
-        <f>VLOOKUP(C14,course_sumups,11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="N14" s="20">
-        <f>VLOOKUP(C14,course_sumups,12,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -59404,39 +59460,39 @@
         <v>190714</v>
       </c>
       <c r="F15" s="20">
-        <f>VLOOKUP(C15,course_sumups,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1678</v>
       </c>
       <c r="G15" s="20">
-        <f>VLOOKUP(C15,course_sumups,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>57.300000000000004</v>
       </c>
       <c r="H15" s="20">
-        <f>VLOOKUP(C15,course_sumups,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="I15" s="20">
-        <f>VLOOKUP(C15,course_sumups,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>182.6</v>
       </c>
       <c r="J15" s="20">
-        <f>VLOOKUP(C15,course_sumups,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="K15" s="20">
-        <f>VLOOKUP(C15,course_sumups,9,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1204</v>
       </c>
       <c r="L15" s="20">
-        <f>VLOOKUP(C15,course_sumups,10,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>656</v>
       </c>
       <c r="M15" s="20">
-        <f>VLOOKUP(C15,course_sumups,11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="N15" s="20">
-        <f>VLOOKUP(C15,course_sumups,12,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -59453,7 +59509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E61A0AB-364F-43C2-A8FA-9F3672D24F25}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
@@ -59920,15 +59976,15 @@
       </c>
       <c r="C2">
         <f ca="1">INT(RAND()*202)</f>
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="D2">
         <f ca="1">INT(RAND()*202)</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <f ca="1">INT(RAND()*202)</f>
-        <v>125</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -59940,15 +59996,15 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E31" ca="1" si="0">INT(RAND()*202)</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -59960,15 +60016,15 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -59980,15 +60036,15 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -60000,15 +60056,15 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -60020,15 +60076,15 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -60040,15 +60096,15 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -60060,15 +60116,15 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -60080,15 +60136,15 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -60100,15 +60156,15 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -60120,15 +60176,15 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -60140,15 +60196,15 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -60160,15 +60216,15 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -60180,15 +60236,15 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -60200,15 +60256,15 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -60220,15 +60276,15 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -60240,11 +60296,11 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
@@ -60260,15 +60316,15 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -60280,15 +60336,15 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -60300,15 +60356,15 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -60320,15 +60376,15 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -60340,15 +60396,15 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -60360,15 +60416,15 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -60380,15 +60436,15 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -60400,15 +60456,15 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -60420,15 +60476,15 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -60440,15 +60496,15 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -60460,15 +60516,15 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -60480,15 +60536,15 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -60500,15 +60556,15 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample/ingredents_dummy_data.xlsx
+++ b/data/sample/ingredents_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\sse2019-group5\data\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576AF6ED-FF53-4E51-BB4B-5DA426516EA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5642D674-4B59-4D34-8C0B-A0B6423DFF1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35520" yWindow="5010" windowWidth="18060" windowHeight="9165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredients" sheetId="3" r:id="rId1"/>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="AC4">
         <f ca="1">INT(RANDBETWEEN(5,12)*10)*10</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="str">
         <f>C4&amp;" "&amp;D4&amp;" "&amp;F4&amp;"kcal"</f>
@@ -48184,10 +48184,10 @@
   <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M116" sqref="M116"/>
+      <selection pane="bottomRight" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -48712,7 +48712,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
@@ -57798,7 +57798,7 @@
       </c>
       <c r="J23" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -59976,15 +59976,15 @@
       </c>
       <c r="C2">
         <f ca="1">INT(RAND()*202)</f>
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <f ca="1">INT(RAND()*202)</f>
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <f ca="1">INT(RAND()*202)</f>
-        <v>195</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -59996,15 +59996,15 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E31" ca="1" si="0">INT(RAND()*202)</f>
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -60016,15 +60016,15 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -60036,15 +60036,15 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -60056,15 +60056,15 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -60076,15 +60076,15 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -60096,15 +60096,15 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -60116,15 +60116,15 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -60136,15 +60136,15 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -60156,15 +60156,15 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -60176,15 +60176,15 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>137</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -60196,15 +60196,15 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -60216,15 +60216,15 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>166</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -60236,15 +60236,15 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -60256,15 +60256,15 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -60276,15 +60276,15 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -60296,15 +60296,15 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>130</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -60316,15 +60316,15 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -60336,15 +60336,15 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -60356,15 +60356,15 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -60376,15 +60376,15 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -60396,15 +60396,15 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -60416,15 +60416,15 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -60436,15 +60436,15 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -60456,15 +60456,15 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -60476,15 +60476,15 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -60496,15 +60496,15 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -60516,15 +60516,15 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>157</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -60536,15 +60536,15 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -60556,15 +60556,15 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
